--- a/鲁elaine.xlsx
+++ b/鲁elaine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xlu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xlu/Desktop/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0F62F-700F-DA46-B119-F101764FC803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE0E209-A78F-604D-8207-E7866AD83EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">一对一 </t>
   </si>
   <si>
-    <t>eosc118</t>
+    <t>eosc11</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
